--- a/Price_Study/Spain/Plots/Summary_Strawberry.xlsx
+++ b/Price_Study/Spain/Plots/Summary_Strawberry.xlsx
@@ -438,7 +438,7 @@
         <v>0.8016320540091433</v>
       </c>
       <c r="F2">
-        <v>2.361487375087249</v>
+        <v>1.131980458546578</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,7 +458,7 @@
         <v>1.479470843911362</v>
       </c>
       <c r="F3">
-        <v>2.505</v>
+        <v>2.146819819230537</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,7 +478,7 @@
         <v>2.332674655140596</v>
       </c>
       <c r="F4">
-        <v>3.582094016100892</v>
+        <v>2.526153402358124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,7 +498,7 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -538,7 +538,7 @@
         <v>1.813199538986507</v>
       </c>
       <c r="F7">
-        <v>2.904515453536374</v>
+        <v>2.179755441148193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,7 +558,7 @@
         <v>0.6478881242931127</v>
       </c>
       <c r="F8">
-        <v>1.32</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -578,7 +578,7 @@
         <v>1.373468264939794</v>
       </c>
       <c r="F9">
-        <v>1.112958828838755</v>
+        <v>1.296185451270793</v>
       </c>
     </row>
   </sheetData>

--- a/Price_Study/Spain/Plots/Summary_Strawberry.xlsx
+++ b/Price_Study/Spain/Plots/Summary_Strawberry.xlsx
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8706475631717808</v>
+        <v>0.8482917113326509</v>
       </c>
       <c r="D2">
         <v>0.9190440686592485</v>
@@ -438,7 +438,7 @@
         <v>0.8016320540091433</v>
       </c>
       <c r="F2">
-        <v>1.131980458546578</v>
+        <v>0.9760985490018222</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1.162998462190203</v>
+        <v>1.025088381882265</v>
       </c>
       <c r="D3">
         <v>1.55657204945054</v>
@@ -458,7 +458,7 @@
         <v>1.479470843911362</v>
       </c>
       <c r="F3">
-        <v>2.146819819230537</v>
+        <v>1.779448698229839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.966288563722911</v>
+        <v>1.743388436237755</v>
       </c>
       <c r="D4">
         <v>2.282607456583391</v>
@@ -478,7 +478,7 @@
         <v>2.332674655140596</v>
       </c>
       <c r="F4">
-        <v>2.526153402358124</v>
+        <v>2.504917496754447</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>27</v>
@@ -498,7 +498,7 @@
         <v>25</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.43132963852179</v>
+        <v>2.030510065050192</v>
       </c>
       <c r="D6">
         <v>3.769088720112518</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.416636598162963</v>
+        <v>1.21838349959691</v>
       </c>
       <c r="D7">
         <v>1.735838798501507</v>
@@ -538,7 +538,7 @@
         <v>1.813199538986507</v>
       </c>
       <c r="F7">
-        <v>2.179755441148193</v>
+        <v>2.056150645566329</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,7 +558,7 @@
         <v>0.6478881242931127</v>
       </c>
       <c r="F8">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.6152528322745772</v>
+        <v>0.4863850730369617</v>
       </c>
       <c r="D9">
         <v>0.8965988167607843</v>
@@ -578,7 +578,7 @@
         <v>1.373468264939794</v>
       </c>
       <c r="F9">
-        <v>1.296185451270793</v>
+        <v>1.290076849426911</v>
       </c>
     </row>
   </sheetData>
